--- a/image/relatedperson.xlsx
+++ b/image/relatedperson.xlsx
@@ -868,45 +868,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="65.40234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.7890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="66.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.86328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="85.921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.06640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="86.5" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.41015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/relatedperson.xlsx
+++ b/image/relatedperson.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="228">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -648,10 +648,6 @@
   </si>
   <si>
     <t>RelatedPerson.communication.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -868,45 +864,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="66.17578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.6875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="65.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="36.7890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="86.5" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.41015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="85.921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.06640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3386,13 +3382,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3443,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3458,7 +3454,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -3472,7 +3468,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3501,7 +3497,7 @@
         <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>97</v>
@@ -3554,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3569,7 +3565,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -3583,11 +3579,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3609,10 +3605,10 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>97</v>
@@ -3667,7 +3663,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3696,7 +3692,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3722,16 +3718,16 @@
         <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3780,7 +3776,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>49</v>
@@ -3795,7 +3791,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -3809,7 +3805,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3835,16 +3831,16 @@
         <v>114</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3893,7 +3889,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3908,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
